--- a/Análises Esportivas/ciclos de Netuno/8 - editável_ciclos.xlsx
+++ b/Análises Esportivas/ciclos de Netuno/8 - editável_ciclos.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="51">
   <si>
     <t xml:space="preserve">Ciclos</t>
   </si>
@@ -185,9 +185,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* \-??_ ;_-@_ "/>
-    <numFmt numFmtId="166" formatCode="0%"/>
+    <numFmt numFmtId="164" formatCode="0%"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* \-??_ ;_-@_ "/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="D/M/YYYY"/>
     <numFmt numFmtId="169" formatCode="0.00%"/>
@@ -645,7 +645,7 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -669,68 +669,68 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="91">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -770,115 +770,115 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="6" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -886,27 +886,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -914,7 +914,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="31" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="31" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -930,15 +930,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -946,7 +946,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="34" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="34" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -954,19 +954,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -974,11 +974,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -990,7 +990,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -998,19 +998,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="4" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1018,7 +1018,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="21" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="21" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1034,7 +1034,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1050,22 +1050,24 @@
   <dxfs count="1">
     <dxf>
       <font>
-        <b val="1"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
         <i val="0"/>
-        <color rgb="FFFF0000"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="FF000000"/>
+        <u val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="0%"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFE2F0D9"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -1368,7 +1370,7 @@
       </c>
       <c r="D8" s="29" t="n">
         <f aca="false">'Ciclo 2'!N5</f>
-        <v>3</v>
+        <v>0.56</v>
       </c>
       <c r="E8" s="30" t="n">
         <f aca="false">'Ciclo 3'!N5</f>
@@ -1402,19 +1404,19 @@
       </c>
       <c r="D9" s="25" t="n">
         <f aca="false">C10+D8</f>
-        <v>6.65</v>
+        <v>4.21</v>
       </c>
       <c r="E9" s="26" t="n">
         <f aca="false">C10+D10+E8</f>
-        <v>8.15</v>
+        <v>4.21</v>
       </c>
       <c r="F9" s="25" t="n">
         <f aca="false">C10+D10+E10+F8</f>
-        <v>9.65</v>
+        <v>5.71</v>
       </c>
       <c r="G9" s="27" t="n">
         <f aca="false">C10+D10+E10+F10+G8</f>
-        <v>12.65</v>
+        <v>8.71</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="12" t="n">
@@ -1423,7 +1425,7 @@
       </c>
       <c r="J9" s="12" t="n">
         <f aca="false">SUM(C10:G10)</f>
-        <v>3.65</v>
+        <v>-0.29</v>
       </c>
       <c r="K9" s="1"/>
     </row>
@@ -1438,7 +1440,7 @@
       </c>
       <c r="D10" s="25" t="n">
         <f aca="false">'Ciclo 2'!Q9</f>
-        <v>0</v>
+        <v>-3.94</v>
       </c>
       <c r="E10" s="26" t="n">
         <f aca="false">'Ciclo 3'!Q9</f>
@@ -1598,7 +1600,7 @@
   </sheetPr>
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N4" activeCellId="0" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -4027,7 +4029,7 @@
   <dimension ref="B1:Q52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4093,7 +4095,9 @@
       <c r="M2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="87"/>
+      <c r="N2" s="87" t="s">
+        <v>42</v>
+      </c>
       <c r="O2" s="53"/>
       <c r="P2" s="51" t="s">
         <v>40</v>
@@ -4122,14 +4126,16 @@
         <f aca="false">D3*J3</f>
         <v>0.15</v>
       </c>
-      <c r="G3" s="58"/>
+      <c r="G3" s="58" t="n">
+        <v>0.19</v>
+      </c>
       <c r="H3" s="59" t="n">
         <f aca="false">IF(G3=0,,G3/C3)</f>
-        <v>0</v>
+        <v>0.0633333333333333</v>
       </c>
       <c r="I3" s="60" t="n">
         <f aca="false">G3-F3</f>
-        <v>-0.15</v>
+        <v>0.04</v>
       </c>
       <c r="J3" s="61" t="n">
         <f aca="false">Diretrizes!D4</f>
@@ -4147,7 +4153,7 @@
       </c>
       <c r="Q3" s="64" t="n">
         <f aca="false">SUM(G3:G402)+Q2</f>
-        <v>3</v>
+        <v>0.56</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4156,7 +4162,7 @@
       </c>
       <c r="C4" s="65" t="n">
         <f aca="false">IF(G3&lt;&gt;0,C3+G3,)</f>
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="D4" s="66" t="n">
         <f aca="false">D3*(1+J3)</f>
@@ -4164,20 +4170,22 @@
       </c>
       <c r="E4" s="65" t="n">
         <f aca="false">C4*J4</f>
-        <v>0</v>
+        <v>0.1555125</v>
       </c>
       <c r="F4" s="66" t="n">
         <f aca="false">D4*J4</f>
         <v>0.1535625</v>
       </c>
-      <c r="G4" s="58"/>
+      <c r="G4" s="58" t="n">
+        <v>0.56</v>
+      </c>
       <c r="H4" s="67" t="n">
         <f aca="false">IF(G4=0,,G4/C4)</f>
-        <v>0</v>
+        <v>0.175548589341693</v>
       </c>
       <c r="I4" s="68" t="n">
         <f aca="false">IF(G4=0,,G4-F4)</f>
-        <v>0</v>
+        <v>0.4064375</v>
       </c>
       <c r="J4" s="61" t="n">
         <f aca="false">J3*(1-Diretrizes!D$5)</f>
@@ -4196,7 +4204,7 @@
       </c>
       <c r="Q4" s="64" t="n">
         <f aca="false">Q3-Q2</f>
-        <v>0</v>
+        <v>-2.44</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4205,7 +4213,7 @@
       </c>
       <c r="C5" s="65" t="n">
         <f aca="false">IF(G4&lt;&gt;0,C4+G4,)</f>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="D5" s="66" t="n">
         <f aca="false">D4*(1+J4)</f>
@@ -4213,20 +4221,22 @@
       </c>
       <c r="E5" s="65" t="n">
         <f aca="false">C5*J5</f>
-        <v>0</v>
+        <v>0.1782421875</v>
       </c>
       <c r="F5" s="66" t="n">
         <f aca="false">D5*J5</f>
         <v>0.157022455078125</v>
       </c>
-      <c r="G5" s="58"/>
+      <c r="G5" s="58" t="n">
+        <v>0.3</v>
+      </c>
       <c r="H5" s="67" t="n">
         <f aca="false">IF(G5=0,,G5/C5)</f>
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="I5" s="68" t="n">
         <f aca="false">IF(G5=0,,G5-F5)</f>
-        <v>0</v>
+        <v>0.142977544921875</v>
       </c>
       <c r="J5" s="61" t="n">
         <f aca="false">J4*(1-Diretrizes!D$5)</f>
@@ -4242,7 +4252,7 @@
       </c>
       <c r="N5" s="54" t="n">
         <f aca="false">N6+Q2</f>
-        <v>3</v>
+        <v>0.56</v>
       </c>
       <c r="O5" s="53"/>
       <c r="P5" s="51" t="s">
@@ -4250,7 +4260,7 @@
       </c>
       <c r="Q5" s="69" t="n">
         <f aca="false">Q3/(Q2)-1</f>
-        <v>0</v>
+        <v>-0.813333333333333</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4259,7 +4269,7 @@
       </c>
       <c r="C6" s="65" t="n">
         <f aca="false">IF(G5&lt;&gt;0,C5+G5,)</f>
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="D6" s="66" t="n">
         <f aca="false">D5*(1+J5)</f>
@@ -4267,20 +4277,22 @@
       </c>
       <c r="E6" s="65" t="n">
         <f aca="false">C6*J6</f>
-        <v>0</v>
+        <v>0.1876890234375</v>
       </c>
       <c r="F6" s="66" t="n">
         <f aca="false">D6*J6</f>
         <v>0.160373780429906</v>
       </c>
-      <c r="G6" s="58"/>
+      <c r="G6" s="58" t="n">
+        <v>0.93</v>
+      </c>
       <c r="H6" s="67" t="n">
         <f aca="false">IF(G6=0,,G6/C6)</f>
-        <v>0</v>
+        <v>0.22962962962963</v>
       </c>
       <c r="I6" s="68" t="n">
         <f aca="false">IF(G6=0,,G6-F6)</f>
-        <v>0</v>
+        <v>0.769626219570094</v>
       </c>
       <c r="J6" s="61" t="n">
         <f aca="false">J5*(1-Diretrizes!D$5)</f>
@@ -4296,7 +4308,7 @@
       </c>
       <c r="N6" s="64" t="n">
         <f aca="false">SUM(G3:G25)</f>
-        <v>0</v>
+        <v>-2.44</v>
       </c>
       <c r="O6" s="70"/>
       <c r="P6" s="71"/>
@@ -4308,7 +4320,7 @@
       </c>
       <c r="C7" s="65" t="n">
         <f aca="false">IF(G6&lt;&gt;0,C6+G6,)</f>
-        <v>0</v>
+        <v>4.98</v>
       </c>
       <c r="D7" s="66" t="n">
         <f aca="false">D6*(1+J6)</f>
@@ -4316,20 +4328,22 @@
       </c>
       <c r="E7" s="65" t="n">
         <f aca="false">C7*J7</f>
-        <v>0</v>
+        <v>0.225018284765625</v>
       </c>
       <c r="F7" s="66" t="n">
         <f aca="false">D7*J7</f>
         <v>0.163610828086571</v>
       </c>
-      <c r="G7" s="58"/>
+      <c r="G7" s="58" t="n">
+        <v>0.45</v>
+      </c>
       <c r="H7" s="67" t="n">
         <f aca="false">IF(G7=0,,G7/C7)</f>
-        <v>0</v>
+        <v>0.0903614457831325</v>
       </c>
       <c r="I7" s="68" t="n">
         <f aca="false">IF(G7=0,,G7-F7)</f>
-        <v>0</v>
+        <v>0.286389171913429</v>
       </c>
       <c r="J7" s="61" t="n">
         <f aca="false">J6*(1-Diretrizes!D$5)</f>
@@ -4345,7 +4359,7 @@
       </c>
       <c r="N7" s="69" t="n">
         <f aca="false">N5/Q2-1</f>
-        <v>0</v>
+        <v>-0.813333333333333</v>
       </c>
       <c r="O7" s="70"/>
       <c r="P7" s="51" t="s">
@@ -4353,7 +4367,7 @@
       </c>
       <c r="Q7" s="72" t="n">
         <f aca="false">SUM(I3:I402)</f>
-        <v>-0.15</v>
+        <v>-3.90892534047196</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4362,7 +4376,7 @@
       </c>
       <c r="C8" s="65" t="n">
         <f aca="false">IF(G7&lt;&gt;0,C7+G7,)</f>
-        <v>0</v>
+        <v>5.43</v>
       </c>
       <c r="D8" s="66" t="n">
         <f aca="false">D7*(1+J7)</f>
@@ -4370,20 +4384,22 @@
       </c>
       <c r="E8" s="65" t="n">
         <f aca="false">C8*J8</f>
-        <v>0</v>
+        <v>0.23921748074707</v>
       </c>
       <c r="F8" s="66" t="n">
         <f aca="false">D8*J8</f>
         <v>0.166728397185108</v>
       </c>
-      <c r="G8" s="58"/>
+      <c r="G8" s="58" t="n">
+        <v>0.31</v>
+      </c>
       <c r="H8" s="67" t="n">
         <f aca="false">IF(G8=0,,G8/C8)</f>
-        <v>0</v>
+        <v>0.0570902394106814</v>
       </c>
       <c r="I8" s="68" t="n">
         <f aca="false">IF(G8=0,,G8-F8)</f>
-        <v>0</v>
+        <v>0.143271602814892</v>
       </c>
       <c r="J8" s="61" t="n">
         <f aca="false">J7*(1-Diretrizes!D$5)</f>
@@ -4406,7 +4422,7 @@
       </c>
       <c r="C9" s="65" t="n">
         <f aca="false">IF(G8&lt;&gt;0,C8+G8,)</f>
-        <v>0</v>
+        <v>5.74</v>
       </c>
       <c r="D9" s="66" t="n">
         <f aca="false">D8*(1+J8)</f>
@@ -4414,20 +4430,22 @@
       </c>
       <c r="E9" s="65" t="n">
         <f aca="false">C9*J9</f>
-        <v>0</v>
+        <v>0.246552602394287</v>
       </c>
       <c r="F9" s="66" t="n">
         <f aca="false">D9*J9</f>
         <v>0.169721741300606</v>
       </c>
-      <c r="G9" s="58"/>
+      <c r="G9" s="58" t="n">
+        <v>-3.1</v>
+      </c>
       <c r="H9" s="67" t="n">
         <f aca="false">IF(G9=0,,G9/C9)</f>
-        <v>0</v>
+        <v>-0.54006968641115</v>
       </c>
       <c r="I9" s="68" t="n">
         <f aca="false">IF(G9=0,,G9-F9)</f>
-        <v>0</v>
+        <v>-3.26972174130061</v>
       </c>
       <c r="J9" s="61" t="n">
         <f aca="false">J8*(1-Diretrizes!D$5)</f>
@@ -4451,7 +4469,7 @@
       </c>
       <c r="Q9" s="73" t="n">
         <f aca="false">IF(G3=0,,N5-'Ciclo 3'!Q2)</f>
-        <v>0</v>
+        <v>-3.94</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4460,7 +4478,7 @@
       </c>
       <c r="C10" s="65" t="n">
         <f aca="false">IF(G9&lt;&gt;0,C9+G9,)</f>
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="D10" s="66" t="n">
         <f aca="false">D9*(1+J9)</f>
@@ -4468,20 +4486,22 @@
       </c>
       <c r="E10" s="65" t="n">
         <f aca="false">C10*J10</f>
-        <v>0</v>
+        <v>0.110562090341968</v>
       </c>
       <c r="F10" s="66" t="n">
         <f aca="false">D10*J10</f>
         <v>0.172586572955467</v>
       </c>
-      <c r="G10" s="58"/>
+      <c r="G10" s="58" t="n">
+        <v>0.16</v>
+      </c>
       <c r="H10" s="67" t="n">
         <f aca="false">IF(G10=0,,G10/C10)</f>
-        <v>0</v>
+        <v>0.0606060606060606</v>
       </c>
       <c r="I10" s="68" t="n">
         <f aca="false">IF(G10=0,,G10-F10)</f>
-        <v>0</v>
+        <v>-0.012586572955467</v>
       </c>
       <c r="J10" s="61" t="n">
         <f aca="false">J9*(1-Diretrizes!D$5)</f>
@@ -4501,7 +4521,7 @@
       </c>
       <c r="C11" s="65" t="n">
         <f aca="false">IF(G10&lt;&gt;0,C10+G10,)</f>
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="D11" s="66" t="n">
         <f aca="false">D10*(1+J10)</f>
@@ -4509,20 +4529,22 @@
       </c>
       <c r="E11" s="65" t="n">
         <f aca="false">C11*J11</f>
-        <v>0</v>
+        <v>0.114331252512717</v>
       </c>
       <c r="F11" s="66" t="n">
         <f aca="false">D11*J11</f>
         <v>0.175319065436179</v>
       </c>
-      <c r="G11" s="58"/>
+      <c r="G11" s="58" t="n">
+        <v>-2.24</v>
+      </c>
       <c r="H11" s="67" t="n">
         <f aca="false">IF(G11=0,,G11/C11)</f>
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="I11" s="68" t="n">
         <f aca="false">IF(G11=0,,G11-F11)</f>
-        <v>0</v>
+        <v>-2.41531906543618</v>
       </c>
       <c r="J11" s="61" t="n">
         <f aca="false">J10*(1-Diretrizes!D$5)</f>
@@ -4545,7 +4567,7 @@
       </c>
       <c r="C12" s="65" t="n">
         <f aca="false">IF(G11&lt;&gt;0,C11+G11,)</f>
-        <v>0</v>
+        <v>0.559999999999999</v>
       </c>
       <c r="D12" s="66" t="n">
         <f aca="false">D11*(1+J11)</f>
@@ -4553,7 +4575,7 @@
       </c>
       <c r="E12" s="65" t="n">
         <f aca="false">C12*J12</f>
-        <v>0</v>
+        <v>0.0222945942399797</v>
       </c>
       <c r="F12" s="66" t="n">
         <f aca="false">D12*J12</f>
